--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688098.535794738</v>
+        <v>1763628.205459543</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>211.1161067089452</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.452171367011</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.2526535426574</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>139.3500692399307</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>93.48944721115194</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.431740553411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.157775988812782</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>321.3007202709586</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>353.346986841124</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>173.3665483025484</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>78.13981344678575</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.25307783771758</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3370797092945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>61.40264942462855</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.6191392338984</v>
       </c>
       <c r="H19" t="n">
-        <v>92.96146126744014</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,10 +2134,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>55.03008280521355</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4797853959763</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>75.9814283556159</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>42.96165421080002</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>154.7089630673036</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>104.6354350586187</v>
+        <v>1.900916560955949</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>26.97444673954966</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.6211591710424</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>109.7158546988682</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847953</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>119.2522674481656</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1005.372199209267</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1005.372199209267</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1005.372199209267</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1005.372199209267</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>594.3862944196599</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1391.972039273389</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.965822962985</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="C4" t="n">
-        <v>210.965822962985</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>331.0295384186159</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>331.0295384186159</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>210.965822962985</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.965822962985</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>209.0731070847524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>209.0731070847524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>62.18315958684201</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>62.18315958684201</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>62.18315958684201</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>62.18315958684201</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4844,10 +4846,10 @@
         <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124028</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,37 +5053,37 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
         <v>822.1480540508779</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="14">
@@ -5261,52 +5263,52 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653859</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488375</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488375</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488375</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.5883316929525</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="C19" t="n">
-        <v>302.6521487650456</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="D19" t="n">
-        <v>302.6521487650456</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="E19" t="n">
-        <v>302.6521487650456</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="F19" t="n">
-        <v>302.6521487650456</v>
+        <v>484.0375086983732</v>
       </c>
       <c r="G19" t="n">
-        <v>302.6521487650456</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5704,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>665.685973528613</v>
       </c>
     </row>
     <row r="20">
@@ -5753,22 +5755,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.850635690702</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5944,16 +5946,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.499100520942</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6075,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4403.920282324018</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4114.791643537576</v>
+        <v>1422.167353026977</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.107155331689</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="W25" t="n">
-        <v>3570.689985294728</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X25" t="n">
-        <v>3570.689985294728</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y25" t="n">
-        <v>3570.689985294728</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6205,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,43 +6232,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>376.9270045185177</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>376.9270045185177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X28" t="n">
-        <v>376.9270045185177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y28" t="n">
-        <v>376.9270045185177</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,52 +6697,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3907.324136615207</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4237.186764279239</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4458.413529040522</v>
+        <v>268.0733921265321</v>
       </c>
       <c r="C34" t="n">
-        <v>4289.477346112615</v>
+        <v>99.13720919862519</v>
       </c>
       <c r="D34" t="n">
-        <v>4139.360706700279</v>
+        <v>99.13720919862519</v>
       </c>
       <c r="E34" t="n">
-        <v>3991.447613117886</v>
+        <v>99.13720919862519</v>
       </c>
       <c r="F34" t="n">
-        <v>3844.557665619976</v>
+        <v>99.13720919862519</v>
       </c>
       <c r="G34" t="n">
-        <v>3676.382343939797</v>
+        <v>99.13720919862519</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014291</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014291</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y34" t="n">
-        <v>4640.061993870761</v>
+        <v>449.7218569567718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>3486.40230981521</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4406.250074723957</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>4116.832904686997</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.107328986838</v>
+        <v>3888.84335378898</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>3668.05077464545</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1304.349443112405</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.564027901911</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>791.4353891154691</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>536.7509009095822</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="W40" t="n">
-        <v>247.3337308726216</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X40" t="n">
-        <v>247.3337308726216</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.3337308726216</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>4334.963857167331</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>4166.027674239424</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
         <v>3459.155393916676</v>
@@ -7828,28 +7830,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>4516.612321997571</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229598</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305255</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.5789023442197</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.27839330891788</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3070059644086</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>42.87442922947919</v>
       </c>
       <c r="H19" t="n">
-        <v>55.95236710009598</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.2167382934143</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>77.06777566241297</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>210.2559240429615</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>243.561344125791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>63.87569028479115</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>44.27839330891746</v>
+        <v>147.0129118065802</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>140.2723743590782</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.299650812560799</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>142.4217886249598</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390327</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>99.33238590392918</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="14">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852505</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,34 +26426,34 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
@@ -26476,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753048</v>
+        <v>-328118.9440753051</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392394</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963699</v>
+        <v>-155829.2223963692</v>
       </c>
       <c r="F6" t="n">
+        <v>369330.8140805265</v>
+      </c>
+      <c r="G6" t="n">
+        <v>369330.8140805266</v>
+      </c>
+      <c r="H6" t="n">
+        <v>369330.8140805261</v>
+      </c>
+      <c r="I6" t="n">
         <v>369330.8140805262</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>192907.5948879333</v>
+      </c>
+      <c r="K6" t="n">
         <v>369330.8140805262</v>
-      </c>
-      <c r="H6" t="n">
-        <v>369330.8140805264</v>
-      </c>
-      <c r="I6" t="n">
-        <v>369330.8140805264</v>
-      </c>
-      <c r="J6" t="n">
-        <v>192907.5948879335</v>
-      </c>
-      <c r="K6" t="n">
-        <v>369330.8140805264</v>
       </c>
       <c r="L6" t="n">
         <v>369330.8140805264</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466892</v>
+        <v>234529.7988466893</v>
       </c>
       <c r="N6" t="n">
         <v>369330.8140805264</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805265</v>
+        <v>369330.8140805264</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805263</v>
+        <v>369330.8140805264</v>
       </c>
     </row>
   </sheetData>
@@ -26741,28 +26743,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>202.6680633118497</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>38.36281947555497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>16.82081960186449</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>289.2443944523286</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.80619810264261</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>37.04218319972422</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>62.45749068994775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>61.43312139252197</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>16.38411383734507</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.465431879388916</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>68.29414919978342</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32071,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>441.2361441450414</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734259</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763628.205459543</v>
+        <v>1756611.190567832</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>182.9517011130388</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>274.452171367011</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>139.3500692399307</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>147.1315379933645</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.48944721115194</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>194.9453656527047</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>223.82438355203</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>321.3007202709586</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>372.6361458940951</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.3665483025484</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25307783771758</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.70733080350626</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.2778941305512</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>61.40264942462855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.6191392338984</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>57.93408156253786</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>45.08911464739343</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>75.9814283556159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.68610738332239</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>154.7089630673036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>1.900916560955949</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>80.04606869856575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>26.97444673954966</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>109.7158546988682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.2522674481656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1716.322045950807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.9194859165262</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C4" t="n">
-        <v>477.9194859165262</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D4" t="n">
-        <v>477.9194859165262</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>477.9194859165262</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0295384186159</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>331.0295384186159</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5263,64 +5263,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341669</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653859</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035279</v>
+        <v>1442.069912850275</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488375</v>
+        <v>1442.069912850275</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488375</v>
+        <v>1442.069912850275</v>
       </c>
       <c r="W16" t="n">
-        <v>898.7925182488375</v>
+        <v>1442.069912850275</v>
       </c>
       <c r="X16" t="n">
-        <v>836.769640042142</v>
+        <v>1214.080361952258</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>993.2877828087275</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0375086983732</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="C19" t="n">
-        <v>484.0375086983732</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="D19" t="n">
-        <v>484.0375086983732</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="E19" t="n">
-        <v>484.0375086983732</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="F19" t="n">
-        <v>484.0375086983732</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5706,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X19" t="n">
-        <v>665.685973528613</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.685973528613</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.03077229167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
         <v>247.6350999123426</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.167353026977</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1167.48286482109</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>878.0656947841297</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>650.0761438861124</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425823</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.1356072130308</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.055751909234</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.78407204327</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6648,13 +6648,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
         <v>835.416391538794</v>
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,7 +6688,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6703,25 +6703,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.0733921265321</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C34" t="n">
-        <v>99.13720919862519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D34" t="n">
-        <v>99.13720919862519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E34" t="n">
-        <v>99.13720919862519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="F34" t="n">
-        <v>99.13720919862519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="G34" t="n">
-        <v>99.13720919862519</v>
+        <v>328.4897147593787</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>178.071706307322</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983193</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>670.514436100302</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y34" t="n">
-        <v>449.7218569567718</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,16 +6955,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3486.40230981521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929844</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929844</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4406.250074723957</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4116.832904686997</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3888.84335378898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3668.05077464545</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>564.1830073829216</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>564.1830073829216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4334.963857167331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4166.027674239424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>4637.069157803799</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>4637.069157803799</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>4637.069157803799</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>4516.612321997571</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229598</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>123.5394902951216</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>165.269666927838</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>164.3070059644086</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>42.87442922947919</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.97974680499827</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>134.7428655345439</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.2559240429615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>269.5512450152549</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.87569028479115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.0129118065802</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>30.37317676570625</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>140.2723743590782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>142.4217886249598</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>99.33238590392918</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852507</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.944075305</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392394</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392395</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963692</v>
+        <v>-156803.8136560913</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805265</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805266</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805261</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805262</v>
+        <v>368356.2228208047</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879333</v>
+        <v>191933.0036282118</v>
       </c>
       <c r="K6" t="n">
-        <v>369330.8140805262</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="L6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="M6" t="n">
-        <v>234529.7988466893</v>
+        <v>233555.2075869675</v>
       </c>
       <c r="N6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208048</v>
       </c>
       <c r="O6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
       <c r="P6" t="n">
-        <v>369330.8140805264</v>
+        <v>368356.2228208046</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>171.7313405076442</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.30008710312387</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.82081960186449</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>65.01400095665437</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.2443944523286</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689272</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>62.45749068994775</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.43312139252197</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>13.60179276195845</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.465431879388916</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.9101789549066</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734259</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507399</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1756611.190567832</v>
+        <v>1761550.453416863</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>182.9517011130388</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>274.2747577784087</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>147.1315379933645</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.440065804380684</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>194.9453656527047</v>
+        <v>88.92068951600918</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>70.08905956414519</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>372.6361458940951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.70733080350626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.82998177290616</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>56.2778941305512</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>217.3817340185994</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.482788338502</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.93408156253786</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.08911464739343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>195.763265749376</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>16.68610738332239</v>
+        <v>203.8435192151882</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>237.3965091869248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.04606869856575</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>146.278729911946</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>163.3521163017828</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>19.89894282654639</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>902.4179758042685</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.946621408918</v>
+        <v>902.4179758042685</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>902.4179758042685</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>902.4179758042685</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.3646104958056</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544182</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.292345937431</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.504093339187</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="F5" t="n">
-        <v>731.5181885495797</v>
+        <v>297.227836124274</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2778626358874</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358874</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>542.7038197849505</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>124.7400116831374</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.8777027000092</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5086,7 +5086,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.900558318119</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>118.257477089484</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.900558318119</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>993.2877828087275</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1442.069912850275</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1442.069912850275</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1442.069912850275</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1442.069912850275</v>
+        <v>1024.654273242319</v>
       </c>
       <c r="X16" t="n">
-        <v>1214.080361952258</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y16" t="n">
-        <v>993.2877828087275</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.6725486937866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>155.7363657658796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>155.7363657658796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>155.7363657658796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7363657658796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>155.7363657658796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655738</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>727.1135926675564</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5940,7 +5940,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011506</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,31 +5974,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
         <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.21084526296</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X25" t="n">
-        <v>1075.21084526296</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y25" t="n">
-        <v>1075.21084526296</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,7 +6235,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6396,40 +6396,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.27620142486</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.591713218973</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>328.4897147593787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>178.071706307322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>496.665036439558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,22 +7165,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7189,7 +7189,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>862.1113288466635</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="V40" t="n">
-        <v>607.4268406407766</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W40" t="n">
-        <v>318.0096706038159</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="44">
@@ -7742,13 +7742,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>394.223678370532</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.5394902951216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>89.58926369136583</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>165.269666927838</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>69.14126431799158</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>90.97974680499827</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.7428655345439</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>90.75973258721496</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>269.5512450152549</v>
+        <v>82.39383318338918</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14.74113413690318</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>30.37317676570625</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>130.3987588013469</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>75.26883114644326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>122.8852360967946</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>232.2387004972816</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
@@ -26346,10 +26346,10 @@
         <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26441,25 +26441,25 @@
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007486</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,19 +26481,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.944075305</v>
+        <v>-328118.9440753052</v>
       </c>
       <c r="C6" t="n">
         <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392396</v>
+        <v>261848.9351392394</v>
       </c>
       <c r="E6" t="n">
-        <v>-156803.8136560913</v>
+        <v>-155926.6815223421</v>
       </c>
       <c r="F6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="G6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="H6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="I6" t="n">
-        <v>368356.2228208047</v>
+        <v>369233.354954554</v>
       </c>
       <c r="J6" t="n">
-        <v>191933.0036282118</v>
+        <v>192810.1357619612</v>
       </c>
       <c r="K6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="L6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="M6" t="n">
-        <v>233555.2075869675</v>
+        <v>234432.3397207171</v>
       </c>
       <c r="N6" t="n">
-        <v>368356.2228208048</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="O6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="P6" t="n">
-        <v>368356.2228208046</v>
+        <v>369233.3549545541</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26770,10 +26770,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>171.7313405076442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>132.6012879633027</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>65.01400095665437</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>214.1445875477141</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>218.8388043680903</v>
+        <v>324.8634805047858</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>75.30176537689272</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>253.8337132002119</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.60179276195845</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36764,7 +36764,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056001</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
